--- a/stock_historical_data/1mo/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1mo/SHANKARA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B2" t="n">
-        <v>703.5</v>
+        <v>538.4515711939348</v>
       </c>
       <c r="C2" t="n">
-        <v>735</v>
+        <v>765.2114262243769</v>
       </c>
       <c r="D2" t="n">
-        <v>665.3499755859375</v>
+        <v>538.4030782540979</v>
       </c>
       <c r="E2" t="n">
-        <v>710.2999877929688</v>
-      </c>
-      <c r="F2" t="n">
-        <v>696.39453125</v>
-      </c>
+        <v>682.4622802734375</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>5102701</v>
+        <v>44410916</v>
       </c>
       <c r="H2" t="n">
         <v>2017</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B3" t="n">
-        <v>717</v>
+        <v>703.5</v>
       </c>
       <c r="C3" t="n">
-        <v>870</v>
+        <v>735</v>
       </c>
       <c r="D3" t="n">
-        <v>692.2000122070312</v>
+        <v>665.3499755859375</v>
       </c>
       <c r="E3" t="n">
-        <v>809.5999755859375</v>
+        <v>710.2999877929688</v>
       </c>
       <c r="F3" t="n">
-        <v>793.7504272460938</v>
+        <v>696.39453125</v>
       </c>
       <c r="G3" t="n">
-        <v>5007191</v>
+        <v>5102701</v>
       </c>
       <c r="H3" t="n">
         <v>2017</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B4" t="n">
-        <v>815.9000244140625</v>
+        <v>717</v>
       </c>
       <c r="C4" t="n">
-        <v>1112.400024414062</v>
+        <v>870</v>
       </c>
       <c r="D4" t="n">
-        <v>812.0499877929688</v>
+        <v>692.2000122070312</v>
       </c>
       <c r="E4" t="n">
-        <v>1027.75</v>
+        <v>809.5999755859375</v>
       </c>
       <c r="F4" t="n">
-        <v>1007.629699707031</v>
+        <v>793.7504272460938</v>
       </c>
       <c r="G4" t="n">
-        <v>8316630</v>
+        <v>5007191</v>
       </c>
       <c r="H4" t="n">
         <v>2017</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B5" t="n">
-        <v>1031.099975585938</v>
+        <v>815.9000244140625</v>
       </c>
       <c r="C5" t="n">
-        <v>1211</v>
+        <v>1112.400024414062</v>
       </c>
       <c r="D5" t="n">
-        <v>957.8499755859375</v>
+        <v>812.0499877929688</v>
       </c>
       <c r="E5" t="n">
-        <v>1193.150024414062</v>
+        <v>1027.75</v>
       </c>
       <c r="F5" t="n">
-        <v>1173.0595703125</v>
+        <v>1007.629699707031</v>
       </c>
       <c r="G5" t="n">
-        <v>2957700</v>
+        <v>8316630</v>
       </c>
       <c r="H5" t="n">
         <v>2017</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B6" t="n">
-        <v>1205</v>
+        <v>1031.099975585938</v>
       </c>
       <c r="C6" t="n">
-        <v>1518</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="n">
-        <v>1172.050048828125</v>
+        <v>957.8499755859375</v>
       </c>
       <c r="E6" t="n">
-        <v>1428.650024414062</v>
+        <v>1193.150024414062</v>
       </c>
       <c r="F6" t="n">
-        <v>1404.59423828125</v>
+        <v>1173.0595703125</v>
       </c>
       <c r="G6" t="n">
-        <v>6600111</v>
+        <v>2957700</v>
       </c>
       <c r="H6" t="n">
         <v>2017</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B7" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1172.050048828125</v>
+      </c>
+      <c r="E7" t="n">
         <v>1428.650024414062</v>
       </c>
-      <c r="C7" t="n">
-        <v>1574.599975585938</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1366</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1489.5</v>
-      </c>
       <c r="F7" t="n">
-        <v>1464.419677734375</v>
+        <v>1404.59423828125</v>
       </c>
       <c r="G7" t="n">
-        <v>2136714</v>
+        <v>6600111</v>
       </c>
       <c r="H7" t="n">
         <v>2017</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B8" t="n">
-        <v>1515</v>
+        <v>1428.650024414062</v>
       </c>
       <c r="C8" t="n">
-        <v>2139.800048828125</v>
+        <v>1574.599975585938</v>
       </c>
       <c r="D8" t="n">
-        <v>1440.050048828125</v>
+        <v>1366</v>
       </c>
       <c r="E8" t="n">
-        <v>2079</v>
+        <v>1489.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2043.993530273438</v>
+        <v>1464.419677734375</v>
       </c>
       <c r="G8" t="n">
-        <v>4353084</v>
+        <v>2136714</v>
       </c>
       <c r="H8" t="n">
         <v>2017</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B9" t="n">
-        <v>2091.699951171875</v>
+        <v>1515</v>
       </c>
       <c r="C9" t="n">
-        <v>2364.800048828125</v>
+        <v>2139.800048828125</v>
       </c>
       <c r="D9" t="n">
-        <v>1690</v>
+        <v>1440.050048828125</v>
       </c>
       <c r="E9" t="n">
-        <v>1779.199951171875</v>
+        <v>2079</v>
       </c>
       <c r="F9" t="n">
-        <v>1749.241577148438</v>
+        <v>2043.993530273438</v>
       </c>
       <c r="G9" t="n">
-        <v>11685030</v>
+        <v>4353084</v>
       </c>
       <c r="H9" t="n">
         <v>2017</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B10" t="n">
-        <v>1780</v>
+        <v>2091.699951171875</v>
       </c>
       <c r="C10" t="n">
-        <v>1845.949951171875</v>
+        <v>2364.800048828125</v>
       </c>
       <c r="D10" t="n">
-        <v>1580.5</v>
+        <v>1690</v>
       </c>
       <c r="E10" t="n">
-        <v>1693.599975585938</v>
+        <v>1779.199951171875</v>
       </c>
       <c r="F10" t="n">
-        <v>1665.0830078125</v>
+        <v>1749.241577148438</v>
       </c>
       <c r="G10" t="n">
-        <v>2761839</v>
+        <v>11685030</v>
       </c>
       <c r="H10" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B11" t="n">
-        <v>1729.900024414062</v>
+        <v>1780</v>
       </c>
       <c r="C11" t="n">
-        <v>1825</v>
+        <v>1845.949951171875</v>
       </c>
       <c r="D11" t="n">
-        <v>1480.199951171875</v>
+        <v>1580.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1791.349975585938</v>
+        <v>1693.599975585938</v>
       </c>
       <c r="F11" t="n">
-        <v>1761.187133789062</v>
+        <v>1665.0830078125</v>
       </c>
       <c r="G11" t="n">
-        <v>1599841</v>
+        <v>2761839</v>
       </c>
       <c r="H11" t="n">
         <v>2018</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B12" t="n">
-        <v>1798.849975585938</v>
+        <v>1729.900024414062</v>
       </c>
       <c r="C12" t="n">
-        <v>1919.599975585938</v>
+        <v>1825</v>
       </c>
       <c r="D12" t="n">
-        <v>1662.050048828125</v>
+        <v>1480.199951171875</v>
       </c>
       <c r="E12" t="n">
-        <v>1752.800048828125</v>
+        <v>1791.349975585938</v>
       </c>
       <c r="F12" t="n">
-        <v>1723.286254882812</v>
+        <v>1761.187133789062</v>
       </c>
       <c r="G12" t="n">
-        <v>1803444</v>
+        <v>1599841</v>
       </c>
       <c r="H12" t="n">
         <v>2018</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B13" t="n">
-        <v>1769</v>
+        <v>1798.849975585938</v>
       </c>
       <c r="C13" t="n">
-        <v>2090.14990234375</v>
+        <v>1919.599975585938</v>
       </c>
       <c r="D13" t="n">
-        <v>1756</v>
+        <v>1662.050048828125</v>
       </c>
       <c r="E13" t="n">
-        <v>1951.349975585938</v>
+        <v>1752.800048828125</v>
       </c>
       <c r="F13" t="n">
-        <v>1918.492919921875</v>
+        <v>1723.286254882812</v>
       </c>
       <c r="G13" t="n">
-        <v>2285154</v>
+        <v>1803444</v>
       </c>
       <c r="H13" t="n">
         <v>2018</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B14" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2090.14990234375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E14" t="n">
         <v>1951.349975585938</v>
       </c>
-      <c r="C14" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1428.449951171875</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1768.300048828125</v>
-      </c>
       <c r="F14" t="n">
-        <v>1738.525268554688</v>
+        <v>1918.492919921875</v>
       </c>
       <c r="G14" t="n">
-        <v>4177369</v>
+        <v>2285154</v>
       </c>
       <c r="H14" t="n">
         <v>2018</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B15" t="n">
-        <v>1767.900024414062</v>
+        <v>1951.349975585938</v>
       </c>
       <c r="C15" t="n">
-        <v>1780</v>
+        <v>2030</v>
       </c>
       <c r="D15" t="n">
-        <v>1452.599975585938</v>
+        <v>1428.449951171875</v>
       </c>
       <c r="E15" t="n">
-        <v>1548.150024414062</v>
+        <v>1768.300048828125</v>
       </c>
       <c r="F15" t="n">
-        <v>1522.082153320312</v>
+        <v>1738.525268554688</v>
       </c>
       <c r="G15" t="n">
-        <v>3776427</v>
+        <v>4177369</v>
       </c>
       <c r="H15" t="n">
         <v>2018</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B16" t="n">
-        <v>1577.949951171875</v>
+        <v>1767.900024414062</v>
       </c>
       <c r="C16" t="n">
-        <v>1658</v>
+        <v>1780</v>
       </c>
       <c r="D16" t="n">
-        <v>1475.300048828125</v>
+        <v>1452.599975585938</v>
       </c>
       <c r="E16" t="n">
-        <v>1636.150024414062</v>
+        <v>1548.150024414062</v>
       </c>
       <c r="F16" t="n">
-        <v>1611.89697265625</v>
+        <v>1522.082153320312</v>
       </c>
       <c r="G16" t="n">
-        <v>1102325</v>
+        <v>3776427</v>
       </c>
       <c r="H16" t="n">
         <v>2018</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B17" t="n">
-        <v>1626</v>
+        <v>1577.949951171875</v>
       </c>
       <c r="C17" t="n">
-        <v>1699</v>
+        <v>1658</v>
       </c>
       <c r="D17" t="n">
-        <v>1540.050048828125</v>
+        <v>1475.300048828125</v>
       </c>
       <c r="E17" t="n">
-        <v>1596.949951171875</v>
+        <v>1636.150024414062</v>
       </c>
       <c r="F17" t="n">
-        <v>1573.277954101562</v>
+        <v>1611.89697265625</v>
       </c>
       <c r="G17" t="n">
-        <v>1056455</v>
+        <v>1102325</v>
       </c>
       <c r="H17" t="n">
         <v>2018</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1369,36 +1361,36 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B18" t="n">
-        <v>1607.699951171875</v>
+        <v>1626</v>
       </c>
       <c r="C18" t="n">
-        <v>1607.699951171875</v>
+        <v>1699</v>
       </c>
       <c r="D18" t="n">
-        <v>1000</v>
+        <v>1540.050048828125</v>
       </c>
       <c r="E18" t="n">
-        <v>1229.550048828125</v>
+        <v>1596.949951171875</v>
       </c>
       <c r="F18" t="n">
-        <v>1211.324096679688</v>
+        <v>1573.277954101562</v>
       </c>
       <c r="G18" t="n">
-        <v>1531502</v>
+        <v>1056455</v>
       </c>
       <c r="H18" t="n">
         <v>2018</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1422,36 +1414,36 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B19" t="n">
-        <v>1200</v>
+        <v>1607.699951171875</v>
       </c>
       <c r="C19" t="n">
-        <v>1270</v>
+        <v>1607.699951171875</v>
       </c>
       <c r="D19" t="n">
-        <v>988.0999755859375</v>
+        <v>1000</v>
       </c>
       <c r="E19" t="n">
-        <v>1100.550048828125</v>
+        <v>1229.550048828125</v>
       </c>
       <c r="F19" t="n">
-        <v>1084.236206054688</v>
+        <v>1211.324096679688</v>
       </c>
       <c r="G19" t="n">
-        <v>786461</v>
+        <v>1531502</v>
       </c>
       <c r="H19" t="n">
         <v>2018</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B20" t="n">
-        <v>1097.25</v>
+        <v>1200</v>
       </c>
       <c r="C20" t="n">
-        <v>1199</v>
+        <v>1270</v>
       </c>
       <c r="D20" t="n">
-        <v>636</v>
+        <v>988.0999755859375</v>
       </c>
       <c r="E20" t="n">
-        <v>693.7999877929688</v>
+        <v>1100.550048828125</v>
       </c>
       <c r="F20" t="n">
-        <v>683.5156860351562</v>
+        <v>1084.236206054688</v>
       </c>
       <c r="G20" t="n">
-        <v>3131567</v>
+        <v>786461</v>
       </c>
       <c r="H20" t="n">
         <v>2018</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B21" t="n">
-        <v>664.7999877929688</v>
+        <v>1097.25</v>
       </c>
       <c r="C21" t="n">
-        <v>664.7999877929688</v>
+        <v>1199</v>
       </c>
       <c r="D21" t="n">
-        <v>490</v>
+        <v>636</v>
       </c>
       <c r="E21" t="n">
-        <v>525.0499877929688</v>
+        <v>693.7999877929688</v>
       </c>
       <c r="F21" t="n">
-        <v>517.2670288085938</v>
+        <v>683.5156860351562</v>
       </c>
       <c r="G21" t="n">
-        <v>9453513</v>
+        <v>3131567</v>
       </c>
       <c r="H21" t="n">
         <v>2018</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B22" t="n">
-        <v>529.9500122070312</v>
+        <v>664.7999877929688</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0499877929688</v>
+        <v>664.7999877929688</v>
       </c>
       <c r="D22" t="n">
-        <v>385</v>
+        <v>490</v>
       </c>
       <c r="E22" t="n">
-        <v>388.8999938964844</v>
+        <v>525.0499877929688</v>
       </c>
       <c r="F22" t="n">
-        <v>383.13525390625</v>
+        <v>517.2670288085938</v>
       </c>
       <c r="G22" t="n">
-        <v>2707709</v>
+        <v>9453513</v>
       </c>
       <c r="H22" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B23" t="n">
-        <v>388</v>
+        <v>529.9500122070312</v>
       </c>
       <c r="C23" t="n">
-        <v>492.6000061035156</v>
+        <v>558.0499877929688</v>
       </c>
       <c r="D23" t="n">
-        <v>316.6000061035156</v>
+        <v>385</v>
       </c>
       <c r="E23" t="n">
-        <v>428.75</v>
+        <v>388.8999938964844</v>
       </c>
       <c r="F23" t="n">
-        <v>422.39453125</v>
+        <v>383.13525390625</v>
       </c>
       <c r="G23" t="n">
-        <v>2441842</v>
+        <v>2707709</v>
       </c>
       <c r="H23" t="n">
         <v>2019</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B24" t="n">
-        <v>430.2999877929688</v>
+        <v>388</v>
       </c>
       <c r="C24" t="n">
-        <v>487.2999877929688</v>
+        <v>492.6000061035156</v>
       </c>
       <c r="D24" t="n">
-        <v>397</v>
+        <v>316.6000061035156</v>
       </c>
       <c r="E24" t="n">
-        <v>410.1499938964844</v>
+        <v>428.75</v>
       </c>
       <c r="F24" t="n">
-        <v>404.0702514648438</v>
+        <v>422.39453125</v>
       </c>
       <c r="G24" t="n">
-        <v>1736981</v>
+        <v>2441842</v>
       </c>
       <c r="H24" t="n">
         <v>2019</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B25" t="n">
-        <v>421</v>
+        <v>430.2999877929688</v>
       </c>
       <c r="C25" t="n">
-        <v>558.5</v>
+        <v>487.2999877929688</v>
       </c>
       <c r="D25" t="n">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="E25" t="n">
-        <v>519.0999755859375</v>
+        <v>410.1499938964844</v>
       </c>
       <c r="F25" t="n">
-        <v>511.4052124023438</v>
+        <v>404.0702514648438</v>
       </c>
       <c r="G25" t="n">
-        <v>3892470</v>
+        <v>1736981</v>
       </c>
       <c r="H25" t="n">
         <v>2019</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B26" t="n">
+        <v>421</v>
+      </c>
+      <c r="C26" t="n">
+        <v>558.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>414</v>
+      </c>
+      <c r="E26" t="n">
         <v>519.0999755859375</v>
       </c>
-      <c r="C26" t="n">
-        <v>568.2999877929688</v>
-      </c>
-      <c r="D26" t="n">
-        <v>455</v>
-      </c>
-      <c r="E26" t="n">
-        <v>521.0999755859375</v>
-      </c>
       <c r="F26" t="n">
-        <v>513.3755493164062</v>
+        <v>511.4052124023438</v>
       </c>
       <c r="G26" t="n">
-        <v>2192067</v>
+        <v>3892470</v>
       </c>
       <c r="H26" t="n">
         <v>2019</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B27" t="n">
-        <v>521</v>
+        <v>519.0999755859375</v>
       </c>
       <c r="C27" t="n">
-        <v>521.0499877929688</v>
+        <v>568.2999877929688</v>
       </c>
       <c r="D27" t="n">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="E27" t="n">
-        <v>440.2000122070312</v>
+        <v>521.0999755859375</v>
       </c>
       <c r="F27" t="n">
-        <v>433.6748352050781</v>
+        <v>513.3755493164062</v>
       </c>
       <c r="G27" t="n">
-        <v>773588</v>
+        <v>2192067</v>
       </c>
       <c r="H27" t="n">
         <v>2019</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B28" t="n">
-        <v>444.6000061035156</v>
+        <v>521</v>
       </c>
       <c r="C28" t="n">
-        <v>449.2999877929688</v>
+        <v>521.0499877929688</v>
       </c>
       <c r="D28" t="n">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="E28" t="n">
-        <v>281.7000122070312</v>
+        <v>440.2000122070312</v>
       </c>
       <c r="F28" t="n">
-        <v>278.4141540527344</v>
+        <v>433.6748352050781</v>
       </c>
       <c r="G28" t="n">
-        <v>987309</v>
+        <v>773588</v>
       </c>
       <c r="H28" t="n">
         <v>2019</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B29" t="n">
-        <v>281.1000061035156</v>
+        <v>444.6000061035156</v>
       </c>
       <c r="C29" t="n">
-        <v>303.5</v>
+        <v>449.2999877929688</v>
       </c>
       <c r="D29" t="n">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7999877929688</v>
+        <v>281.7000122070312</v>
       </c>
       <c r="F29" t="n">
-        <v>259.734619140625</v>
+        <v>278.4141540527344</v>
       </c>
       <c r="G29" t="n">
-        <v>750479</v>
+        <v>987309</v>
       </c>
       <c r="H29" t="n">
         <v>2019</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B30" t="n">
+        <v>281.1000061035156</v>
+      </c>
+      <c r="C30" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>241</v>
+      </c>
+      <c r="E30" t="n">
         <v>262.7999877929688</v>
       </c>
-      <c r="C30" t="n">
-        <v>482.3500061035156</v>
-      </c>
-      <c r="D30" t="n">
-        <v>251.6000061035156</v>
-      </c>
-      <c r="E30" t="n">
-        <v>327.9500122070312</v>
-      </c>
       <c r="F30" t="n">
-        <v>324.1246948242188</v>
+        <v>259.734619140625</v>
       </c>
       <c r="G30" t="n">
-        <v>9252162</v>
+        <v>750479</v>
       </c>
       <c r="H30" t="n">
         <v>2019</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,45 +2041,45 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B31" t="n">
-        <v>328.7999877929688</v>
+        <v>262.7999877929688</v>
       </c>
       <c r="C31" t="n">
-        <v>355</v>
+        <v>482.3500061035156</v>
       </c>
       <c r="D31" t="n">
-        <v>266.2999877929688</v>
+        <v>251.6000061035156</v>
       </c>
       <c r="E31" t="n">
-        <v>343.6000061035156</v>
+        <v>327.9500122070312</v>
       </c>
       <c r="F31" t="n">
-        <v>339.5921630859375</v>
+        <v>324.1246948242188</v>
       </c>
       <c r="G31" t="n">
-        <v>1402757</v>
+        <v>9252162</v>
       </c>
       <c r="H31" t="n">
         <v>2019</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2111,36 +2103,36 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B32" t="n">
-        <v>355.8999938964844</v>
+        <v>328.7999877929688</v>
       </c>
       <c r="C32" t="n">
-        <v>378.75</v>
+        <v>355</v>
       </c>
       <c r="D32" t="n">
-        <v>300</v>
+        <v>266.2999877929688</v>
       </c>
       <c r="E32" t="n">
-        <v>312.0499877929688</v>
+        <v>343.6000061035156</v>
       </c>
       <c r="F32" t="n">
-        <v>308.4101257324219</v>
+        <v>339.5921630859375</v>
       </c>
       <c r="G32" t="n">
-        <v>1138234</v>
+        <v>1402757</v>
       </c>
       <c r="H32" t="n">
         <v>2019</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B33" t="n">
-        <v>307</v>
+        <v>355.8999938964844</v>
       </c>
       <c r="C33" t="n">
-        <v>325.6499938964844</v>
+        <v>378.75</v>
       </c>
       <c r="D33" t="n">
-        <v>278.2000122070312</v>
+        <v>300</v>
       </c>
       <c r="E33" t="n">
-        <v>313.6499938964844</v>
+        <v>312.0499877929688</v>
       </c>
       <c r="F33" t="n">
-        <v>309.9914855957031</v>
+        <v>308.4101257324219</v>
       </c>
       <c r="G33" t="n">
-        <v>941312</v>
+        <v>1138234</v>
       </c>
       <c r="H33" t="n">
         <v>2019</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2217,36 +2209,36 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B34" t="n">
-        <v>315.75</v>
+        <v>307</v>
       </c>
       <c r="C34" t="n">
-        <v>434.25</v>
+        <v>325.6499938964844</v>
       </c>
       <c r="D34" t="n">
-        <v>310.0499877929688</v>
+        <v>278.2000122070312</v>
       </c>
       <c r="E34" t="n">
-        <v>385.8999938964844</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="F34" t="n">
-        <v>381.3987426757812</v>
+        <v>309.9914855957031</v>
       </c>
       <c r="G34" t="n">
-        <v>2922363</v>
+        <v>941312</v>
       </c>
       <c r="H34" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2270,36 +2262,36 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B35" t="n">
-        <v>381</v>
+        <v>315.75</v>
       </c>
       <c r="C35" t="n">
-        <v>579.7999877929688</v>
+        <v>434.25</v>
       </c>
       <c r="D35" t="n">
-        <v>356</v>
+        <v>310.0499877929688</v>
       </c>
       <c r="E35" t="n">
-        <v>452.7999877929688</v>
+        <v>385.8999938964844</v>
       </c>
       <c r="F35" t="n">
-        <v>447.5184020996094</v>
+        <v>381.3987426757812</v>
       </c>
       <c r="G35" t="n">
-        <v>2410186</v>
+        <v>2922363</v>
       </c>
       <c r="H35" t="n">
         <v>2020</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B36" t="n">
-        <v>464.7000122070312</v>
+        <v>381</v>
       </c>
       <c r="C36" t="n">
-        <v>479</v>
+        <v>579.7999877929688</v>
       </c>
       <c r="D36" t="n">
-        <v>215.6000061035156</v>
+        <v>356</v>
       </c>
       <c r="E36" t="n">
-        <v>221.5500030517578</v>
+        <v>452.7999877929688</v>
       </c>
       <c r="F36" t="n">
-        <v>218.9657897949219</v>
+        <v>447.5184020996094</v>
       </c>
       <c r="G36" t="n">
-        <v>903234</v>
+        <v>2410186</v>
       </c>
       <c r="H36" t="n">
         <v>2020</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B37" t="n">
-        <v>225.8999938964844</v>
+        <v>464.7000122070312</v>
       </c>
       <c r="C37" t="n">
-        <v>277.4500122070312</v>
+        <v>479</v>
       </c>
       <c r="D37" t="n">
-        <v>214</v>
+        <v>215.6000061035156</v>
       </c>
       <c r="E37" t="n">
-        <v>256.3500061035156</v>
+        <v>221.5500030517578</v>
       </c>
       <c r="F37" t="n">
-        <v>255.1532287597656</v>
+        <v>218.9657897949219</v>
       </c>
       <c r="G37" t="n">
-        <v>673043</v>
+        <v>903234</v>
       </c>
       <c r="H37" t="n">
         <v>2020</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B38" t="n">
+        <v>225.8999938964844</v>
+      </c>
+      <c r="C38" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="D38" t="n">
+        <v>214</v>
+      </c>
+      <c r="E38" t="n">
         <v>256.3500061035156</v>
       </c>
-      <c r="C38" t="n">
-        <v>282.6000061035156</v>
-      </c>
-      <c r="D38" t="n">
-        <v>229</v>
-      </c>
-      <c r="E38" t="n">
-        <v>236.9499969482422</v>
-      </c>
       <c r="F38" t="n">
-        <v>235.8438110351562</v>
+        <v>255.1532287597656</v>
       </c>
       <c r="G38" t="n">
-        <v>489174</v>
+        <v>673043</v>
       </c>
       <c r="H38" t="n">
         <v>2020</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B39" t="n">
-        <v>242.8999938964844</v>
+        <v>256.3500061035156</v>
       </c>
       <c r="C39" t="n">
-        <v>442.6499938964844</v>
+        <v>282.6000061035156</v>
       </c>
       <c r="D39" t="n">
-        <v>240.0500030517578</v>
+        <v>229</v>
       </c>
       <c r="E39" t="n">
-        <v>356.2000122070312</v>
+        <v>236.9499969482422</v>
       </c>
       <c r="F39" t="n">
-        <v>354.5370788574219</v>
+        <v>235.8438110351562</v>
       </c>
       <c r="G39" t="n">
-        <v>6643971</v>
+        <v>489174</v>
       </c>
       <c r="H39" t="n">
         <v>2020</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2535,36 +2527,36 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B40" t="n">
-        <v>359</v>
+        <v>242.8999938964844</v>
       </c>
       <c r="C40" t="n">
-        <v>384.7000122070312</v>
+        <v>442.6499938964844</v>
       </c>
       <c r="D40" t="n">
-        <v>328.7999877929688</v>
+        <v>240.0500030517578</v>
       </c>
       <c r="E40" t="n">
-        <v>336.25</v>
+        <v>356.2000122070312</v>
       </c>
       <c r="F40" t="n">
-        <v>334.6802368164062</v>
+        <v>354.5370788574219</v>
       </c>
       <c r="G40" t="n">
-        <v>1212584</v>
+        <v>6643971</v>
       </c>
       <c r="H40" t="n">
         <v>2020</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2588,36 +2580,36 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B41" t="n">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C41" t="n">
-        <v>431.1000061035156</v>
+        <v>384.7000122070312</v>
       </c>
       <c r="D41" t="n">
-        <v>329</v>
+        <v>328.7999877929688</v>
       </c>
       <c r="E41" t="n">
-        <v>368.8500061035156</v>
+        <v>336.25</v>
       </c>
       <c r="F41" t="n">
-        <v>367.1280517578125</v>
+        <v>334.6802368164062</v>
       </c>
       <c r="G41" t="n">
-        <v>3545638</v>
+        <v>1212584</v>
       </c>
       <c r="H41" t="n">
         <v>2020</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2641,36 +2633,36 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B42" t="n">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C42" t="n">
-        <v>383.75</v>
+        <v>431.1000061035156</v>
       </c>
       <c r="D42" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="E42" t="n">
-        <v>343.5</v>
+        <v>368.8500061035156</v>
       </c>
       <c r="F42" t="n">
-        <v>341.8963928222656</v>
+        <v>367.1280517578125</v>
       </c>
       <c r="G42" t="n">
-        <v>744128</v>
+        <v>3545638</v>
       </c>
       <c r="H42" t="n">
         <v>2020</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2694,36 +2686,36 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B43" t="n">
-        <v>345.9500122070312</v>
+        <v>371</v>
       </c>
       <c r="C43" t="n">
-        <v>359.7000122070312</v>
+        <v>383.75</v>
       </c>
       <c r="D43" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E43" t="n">
-        <v>316.4500122070312</v>
+        <v>343.5</v>
       </c>
       <c r="F43" t="n">
-        <v>314.97265625</v>
+        <v>341.8963928222656</v>
       </c>
       <c r="G43" t="n">
-        <v>387025</v>
+        <v>744128</v>
       </c>
       <c r="H43" t="n">
         <v>2020</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B44" t="n">
-        <v>318.9500122070312</v>
+        <v>345.9500122070312</v>
       </c>
       <c r="C44" t="n">
-        <v>345.9500122070312</v>
+        <v>359.7000122070312</v>
       </c>
       <c r="D44" t="n">
-        <v>279.6499938964844</v>
+        <v>315</v>
       </c>
       <c r="E44" t="n">
-        <v>329.4500122070312</v>
+        <v>316.4500122070312</v>
       </c>
       <c r="F44" t="n">
-        <v>327.9119873046875</v>
+        <v>314.97265625</v>
       </c>
       <c r="G44" t="n">
-        <v>1875935</v>
+        <v>387025</v>
       </c>
       <c r="H44" t="n">
         <v>2020</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B45" t="n">
-        <v>330</v>
+        <v>318.9500122070312</v>
       </c>
       <c r="C45" t="n">
-        <v>391.5</v>
+        <v>345.9500122070312</v>
       </c>
       <c r="D45" t="n">
-        <v>316.7999877929688</v>
+        <v>279.6499938964844</v>
       </c>
       <c r="E45" t="n">
-        <v>349.25</v>
+        <v>329.4500122070312</v>
       </c>
       <c r="F45" t="n">
-        <v>347.6195373535156</v>
+        <v>327.9119873046875</v>
       </c>
       <c r="G45" t="n">
-        <v>2713924</v>
+        <v>1875935</v>
       </c>
       <c r="H45" t="n">
         <v>2020</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B46" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C46" t="n">
-        <v>364.3999938964844</v>
+        <v>391.5</v>
       </c>
       <c r="D46" t="n">
-        <v>322.7999877929688</v>
+        <v>316.7999877929688</v>
       </c>
       <c r="E46" t="n">
-        <v>352.6000061035156</v>
+        <v>349.25</v>
       </c>
       <c r="F46" t="n">
-        <v>350.9538879394531</v>
+        <v>347.6195373535156</v>
       </c>
       <c r="G46" t="n">
-        <v>1237004</v>
+        <v>2713924</v>
       </c>
       <c r="H46" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B47" t="n">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C47" t="n">
-        <v>517.7000122070312</v>
+        <v>364.3999938964844</v>
       </c>
       <c r="D47" t="n">
-        <v>343.5</v>
+        <v>322.7999877929688</v>
       </c>
       <c r="E47" t="n">
-        <v>443.7000122070312</v>
+        <v>352.6000061035156</v>
       </c>
       <c r="F47" t="n">
-        <v>441.6286315917969</v>
+        <v>350.9538879394531</v>
       </c>
       <c r="G47" t="n">
-        <v>5529765</v>
+        <v>1237004</v>
       </c>
       <c r="H47" t="n">
         <v>2021</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B48" t="n">
-        <v>447.6499938964844</v>
+        <v>356</v>
       </c>
       <c r="C48" t="n">
-        <v>493.3500061035156</v>
+        <v>517.7000122070312</v>
       </c>
       <c r="D48" t="n">
-        <v>374.0499877929688</v>
+        <v>343.5</v>
       </c>
       <c r="E48" t="n">
-        <v>411.25</v>
+        <v>443.7000122070312</v>
       </c>
       <c r="F48" t="n">
-        <v>409.330078125</v>
+        <v>441.6286315917969</v>
       </c>
       <c r="G48" t="n">
-        <v>3021148</v>
+        <v>5529765</v>
       </c>
       <c r="H48" t="n">
         <v>2021</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,45 +2995,45 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B49" t="n">
-        <v>414.5</v>
+        <v>447.6499938964844</v>
       </c>
       <c r="C49" t="n">
-        <v>454</v>
+        <v>493.3500061035156</v>
       </c>
       <c r="D49" t="n">
-        <v>359.25</v>
+        <v>374.0499877929688</v>
       </c>
       <c r="E49" t="n">
-        <v>372.9500122070312</v>
+        <v>411.25</v>
       </c>
       <c r="F49" t="n">
-        <v>371.2089233398438</v>
+        <v>409.330078125</v>
       </c>
       <c r="G49" t="n">
-        <v>1979052</v>
+        <v>3021148</v>
       </c>
       <c r="H49" t="n">
         <v>2021</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3065,36 +3057,36 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B50" t="n">
-        <v>362.2000122070312</v>
+        <v>414.5</v>
       </c>
       <c r="C50" t="n">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="D50" t="n">
-        <v>362</v>
+        <v>359.25</v>
       </c>
       <c r="E50" t="n">
-        <v>431.2999877929688</v>
+        <v>372.9500122070312</v>
       </c>
       <c r="F50" t="n">
-        <v>429.2864990234375</v>
+        <v>371.2089233398438</v>
       </c>
       <c r="G50" t="n">
-        <v>3272988</v>
+        <v>1979052</v>
       </c>
       <c r="H50" t="n">
         <v>2021</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B51" t="n">
-        <v>434.6499938964844</v>
+        <v>362.2000122070312</v>
       </c>
       <c r="C51" t="n">
-        <v>483.8500061035156</v>
+        <v>475</v>
       </c>
       <c r="D51" t="n">
-        <v>417.6000061035156</v>
+        <v>362</v>
       </c>
       <c r="E51" t="n">
-        <v>452.1499938964844</v>
+        <v>431.2999877929688</v>
       </c>
       <c r="F51" t="n">
-        <v>450.0391235351562</v>
+        <v>429.2864990234375</v>
       </c>
       <c r="G51" t="n">
-        <v>3369823</v>
+        <v>3272988</v>
       </c>
       <c r="H51" t="n">
         <v>2021</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3171,36 +3163,36 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B52" t="n">
-        <v>454.7999877929688</v>
+        <v>434.6499938964844</v>
       </c>
       <c r="C52" t="n">
-        <v>668.9500122070312</v>
+        <v>483.8500061035156</v>
       </c>
       <c r="D52" t="n">
-        <v>442.5499877929688</v>
+        <v>417.6000061035156</v>
       </c>
       <c r="E52" t="n">
-        <v>653.0499877929688</v>
+        <v>452.1499938964844</v>
       </c>
       <c r="F52" t="n">
-        <v>650.0012817382812</v>
+        <v>450.0391235351562</v>
       </c>
       <c r="G52" t="n">
-        <v>12478410</v>
+        <v>3369823</v>
       </c>
       <c r="H52" t="n">
         <v>2021</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3224,36 +3216,36 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B53" t="n">
-        <v>658.4000244140625</v>
+        <v>454.7999877929688</v>
       </c>
       <c r="C53" t="n">
-        <v>683.6500244140625</v>
+        <v>668.9500122070312</v>
       </c>
       <c r="D53" t="n">
-        <v>522.3499755859375</v>
+        <v>442.5499877929688</v>
       </c>
       <c r="E53" t="n">
-        <v>543.25</v>
+        <v>653.0499877929688</v>
       </c>
       <c r="F53" t="n">
-        <v>540.7138061523438</v>
+        <v>650.0012817382812</v>
       </c>
       <c r="G53" t="n">
-        <v>4425225</v>
+        <v>12478410</v>
       </c>
       <c r="H53" t="n">
         <v>2021</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B54" t="n">
-        <v>544.7000122070312</v>
+        <v>658.4000244140625</v>
       </c>
       <c r="C54" t="n">
-        <v>648.7999877929688</v>
+        <v>683.6500244140625</v>
       </c>
       <c r="D54" t="n">
-        <v>525.25</v>
+        <v>522.3499755859375</v>
       </c>
       <c r="E54" t="n">
-        <v>591.7000122070312</v>
+        <v>543.25</v>
       </c>
       <c r="F54" t="n">
-        <v>588.9376831054688</v>
+        <v>540.7138061523438</v>
       </c>
       <c r="G54" t="n">
-        <v>4245231</v>
+        <v>4425225</v>
       </c>
       <c r="H54" t="n">
         <v>2021</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B55" t="n">
-        <v>588.7000122070312</v>
+        <v>544.7000122070312</v>
       </c>
       <c r="C55" t="n">
-        <v>638</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="D55" t="n">
-        <v>539.0999755859375</v>
+        <v>525.25</v>
       </c>
       <c r="E55" t="n">
-        <v>544.9500122070312</v>
+        <v>591.7000122070312</v>
       </c>
       <c r="F55" t="n">
-        <v>542.4059448242188</v>
+        <v>588.9376831054688</v>
       </c>
       <c r="G55" t="n">
-        <v>1991877</v>
+        <v>4245231</v>
       </c>
       <c r="H55" t="n">
         <v>2021</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B56" t="n">
-        <v>549.7000122070312</v>
+        <v>588.7000122070312</v>
       </c>
       <c r="C56" t="n">
-        <v>619.7000122070312</v>
+        <v>638</v>
       </c>
       <c r="D56" t="n">
-        <v>482.8500061035156</v>
+        <v>539.0999755859375</v>
       </c>
       <c r="E56" t="n">
-        <v>497.5</v>
+        <v>544.9500122070312</v>
       </c>
       <c r="F56" t="n">
-        <v>495.1774597167969</v>
+        <v>542.4059448242188</v>
       </c>
       <c r="G56" t="n">
-        <v>1895565</v>
+        <v>1991877</v>
       </c>
       <c r="H56" t="n">
         <v>2021</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B57" t="n">
-        <v>502.4500122070312</v>
+        <v>549.7000122070312</v>
       </c>
       <c r="C57" t="n">
-        <v>545</v>
+        <v>619.7000122070312</v>
       </c>
       <c r="D57" t="n">
-        <v>481</v>
+        <v>482.8500061035156</v>
       </c>
       <c r="E57" t="n">
-        <v>532</v>
+        <v>497.5</v>
       </c>
       <c r="F57" t="n">
-        <v>529.516357421875</v>
+        <v>495.1774597167969</v>
       </c>
       <c r="G57" t="n">
-        <v>987226</v>
+        <v>1895565</v>
       </c>
       <c r="H57" t="n">
         <v>2021</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,45 +3472,45 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B58" t="n">
-        <v>534.7000122070312</v>
+        <v>502.4500122070312</v>
       </c>
       <c r="C58" t="n">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E58" t="n">
-        <v>507.3999938964844</v>
+        <v>532</v>
       </c>
       <c r="F58" t="n">
-        <v>505.0312194824219</v>
+        <v>529.516357421875</v>
       </c>
       <c r="G58" t="n">
-        <v>856357</v>
+        <v>987226</v>
       </c>
       <c r="H58" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,45 +3525,45 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B59" t="n">
-        <v>510.6000061035156</v>
+        <v>534.7000122070312</v>
       </c>
       <c r="C59" t="n">
-        <v>752.2000122070312</v>
+        <v>564</v>
       </c>
       <c r="D59" t="n">
-        <v>487.1000061035156</v>
+        <v>484</v>
       </c>
       <c r="E59" t="n">
-        <v>737.75</v>
+        <v>507.3999938964844</v>
       </c>
       <c r="F59" t="n">
-        <v>734.3058471679688</v>
+        <v>505.0312194824219</v>
       </c>
       <c r="G59" t="n">
-        <v>10357504</v>
+        <v>856357</v>
       </c>
       <c r="H59" t="n">
         <v>2022</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B60" t="n">
+        <v>510.6000061035156</v>
+      </c>
+      <c r="C60" t="n">
+        <v>752.2000122070312</v>
+      </c>
+      <c r="D60" t="n">
+        <v>487.1000061035156</v>
+      </c>
+      <c r="E60" t="n">
         <v>737.75</v>
       </c>
-      <c r="C60" t="n">
-        <v>843.8499755859375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>651.4000244140625</v>
-      </c>
-      <c r="E60" t="n">
-        <v>787.0499877929688</v>
-      </c>
       <c r="F60" t="n">
-        <v>783.3756713867188</v>
+        <v>734.3058471679688</v>
       </c>
       <c r="G60" t="n">
-        <v>6621593</v>
+        <v>10357504</v>
       </c>
       <c r="H60" t="n">
         <v>2022</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B61" t="n">
-        <v>787</v>
+        <v>737.75</v>
       </c>
       <c r="C61" t="n">
-        <v>830</v>
+        <v>843.8499755859375</v>
       </c>
       <c r="D61" t="n">
-        <v>740.9500122070312</v>
+        <v>651.4000244140625</v>
       </c>
       <c r="E61" t="n">
-        <v>757.2999877929688</v>
+        <v>787.0499877929688</v>
       </c>
       <c r="F61" t="n">
-        <v>753.7645263671875</v>
+        <v>783.3756713867188</v>
       </c>
       <c r="G61" t="n">
-        <v>2725899</v>
+        <v>6621593</v>
       </c>
       <c r="H61" t="n">
         <v>2022</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,45 +3684,45 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B62" t="n">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="C62" t="n">
-        <v>774.5999755859375</v>
+        <v>830</v>
       </c>
       <c r="D62" t="n">
-        <v>650</v>
+        <v>740.9500122070312</v>
       </c>
       <c r="E62" t="n">
-        <v>701.2999877929688</v>
+        <v>757.2999877929688</v>
       </c>
       <c r="F62" t="n">
-        <v>698.0260009765625</v>
+        <v>753.7645263671875</v>
       </c>
       <c r="G62" t="n">
-        <v>1080133</v>
+        <v>2725899</v>
       </c>
       <c r="H62" t="n">
         <v>2022</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3754,36 +3746,36 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B63" t="n">
-        <v>701</v>
+        <v>755</v>
       </c>
       <c r="C63" t="n">
-        <v>816.9000244140625</v>
+        <v>774.5999755859375</v>
       </c>
       <c r="D63" t="n">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="E63" t="n">
-        <v>668.7999877929688</v>
+        <v>701.2999877929688</v>
       </c>
       <c r="F63" t="n">
-        <v>665.6776733398438</v>
+        <v>698.0260009765625</v>
       </c>
       <c r="G63" t="n">
-        <v>1741712</v>
+        <v>1080133</v>
       </c>
       <c r="H63" t="n">
         <v>2022</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B64" t="n">
-        <v>662.0999755859375</v>
+        <v>701</v>
       </c>
       <c r="C64" t="n">
-        <v>742</v>
+        <v>816.9000244140625</v>
       </c>
       <c r="D64" t="n">
-        <v>648.5</v>
+        <v>638</v>
       </c>
       <c r="E64" t="n">
-        <v>707.25</v>
+        <v>668.7999877929688</v>
       </c>
       <c r="F64" t="n">
-        <v>703.9481811523438</v>
+        <v>665.6776733398438</v>
       </c>
       <c r="G64" t="n">
-        <v>1071621</v>
+        <v>1741712</v>
       </c>
       <c r="H64" t="n">
         <v>2022</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,45 +3843,45 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B65" t="n">
-        <v>710.7999877929688</v>
+        <v>662.0999755859375</v>
       </c>
       <c r="C65" t="n">
-        <v>777.7999877929688</v>
+        <v>742</v>
       </c>
       <c r="D65" t="n">
-        <v>680.5</v>
+        <v>648.5</v>
       </c>
       <c r="E65" t="n">
-        <v>763.2999877929688</v>
+        <v>707.25</v>
       </c>
       <c r="F65" t="n">
-        <v>760.7813720703125</v>
+        <v>703.9481811523438</v>
       </c>
       <c r="G65" t="n">
-        <v>2206549</v>
+        <v>1071621</v>
       </c>
       <c r="H65" t="n">
         <v>2022</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3913,36 +3905,36 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B66" t="n">
-        <v>757.9000244140625</v>
+        <v>710.7999877929688</v>
       </c>
       <c r="C66" t="n">
-        <v>810</v>
+        <v>777.7999877929688</v>
       </c>
       <c r="D66" t="n">
-        <v>670.5</v>
+        <v>680.5</v>
       </c>
       <c r="E66" t="n">
-        <v>696.5499877929688</v>
+        <v>763.2999877929688</v>
       </c>
       <c r="F66" t="n">
-        <v>694.2515869140625</v>
+        <v>760.7813720703125</v>
       </c>
       <c r="G66" t="n">
-        <v>1765221</v>
+        <v>2206549</v>
       </c>
       <c r="H66" t="n">
         <v>2022</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B67" t="n">
-        <v>700.0499877929688</v>
+        <v>757.9000244140625</v>
       </c>
       <c r="C67" t="n">
-        <v>758.9000244140625</v>
+        <v>810</v>
       </c>
       <c r="D67" t="n">
-        <v>690.2999877929688</v>
+        <v>670.5</v>
       </c>
       <c r="E67" t="n">
-        <v>709.9000244140625</v>
+        <v>696.5499877929688</v>
       </c>
       <c r="F67" t="n">
-        <v>707.5576171875</v>
+        <v>694.2515869140625</v>
       </c>
       <c r="G67" t="n">
-        <v>779285</v>
+        <v>1765221</v>
       </c>
       <c r="H67" t="n">
         <v>2022</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4019,36 +4011,36 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B68" t="n">
-        <v>708.1500244140625</v>
+        <v>700.0499877929688</v>
       </c>
       <c r="C68" t="n">
-        <v>744.9500122070312</v>
+        <v>758.9000244140625</v>
       </c>
       <c r="D68" t="n">
-        <v>685</v>
+        <v>690.2999877929688</v>
       </c>
       <c r="E68" t="n">
-        <v>717.8499755859375</v>
+        <v>709.9000244140625</v>
       </c>
       <c r="F68" t="n">
-        <v>715.4813232421875</v>
+        <v>707.5576171875</v>
       </c>
       <c r="G68" t="n">
-        <v>830397</v>
+        <v>779285</v>
       </c>
       <c r="H68" t="n">
         <v>2022</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4072,36 +4064,36 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B69" t="n">
-        <v>728.7999877929688</v>
+        <v>708.1500244140625</v>
       </c>
       <c r="C69" t="n">
-        <v>764</v>
+        <v>744.9500122070312</v>
       </c>
       <c r="D69" t="n">
-        <v>582.9500122070312</v>
+        <v>685</v>
       </c>
       <c r="E69" t="n">
-        <v>669.9500122070312</v>
+        <v>717.8499755859375</v>
       </c>
       <c r="F69" t="n">
-        <v>667.7393798828125</v>
+        <v>715.4813232421875</v>
       </c>
       <c r="G69" t="n">
-        <v>1843497</v>
+        <v>830397</v>
       </c>
       <c r="H69" t="n">
         <v>2022</v>
       </c>
       <c r="I69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B70" t="n">
-        <v>673.2999877929688</v>
+        <v>728.7999877929688</v>
       </c>
       <c r="C70" t="n">
-        <v>688.9500122070312</v>
+        <v>764</v>
       </c>
       <c r="D70" t="n">
-        <v>594.1500244140625</v>
+        <v>582.9500122070312</v>
       </c>
       <c r="E70" t="n">
-        <v>627.2000122070312</v>
+        <v>669.9500122070312</v>
       </c>
       <c r="F70" t="n">
-        <v>625.1304931640625</v>
+        <v>667.7393798828125</v>
       </c>
       <c r="G70" t="n">
-        <v>564114</v>
+        <v>1843497</v>
       </c>
       <c r="H70" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4183,31 +4175,31 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B71" t="n">
+        <v>673.2999877929688</v>
+      </c>
+      <c r="C71" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="D71" t="n">
+        <v>594.1500244140625</v>
+      </c>
+      <c r="E71" t="n">
         <v>627.2000122070312</v>
       </c>
-      <c r="C71" t="n">
-        <v>730.7999877929688</v>
-      </c>
-      <c r="D71" t="n">
-        <v>623.1500244140625</v>
-      </c>
-      <c r="E71" t="n">
-        <v>691.9500122070312</v>
-      </c>
       <c r="F71" t="n">
-        <v>689.6668090820312</v>
+        <v>625.1304931640625</v>
       </c>
       <c r="G71" t="n">
-        <v>587475</v>
+        <v>564114</v>
       </c>
       <c r="H71" t="n">
         <v>2023</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B72" t="n">
-        <v>695.4500122070312</v>
+        <v>627.2000122070312</v>
       </c>
       <c r="C72" t="n">
-        <v>715</v>
+        <v>730.7999877929688</v>
       </c>
       <c r="D72" t="n">
-        <v>603.0499877929688</v>
+        <v>623.1500244140625</v>
       </c>
       <c r="E72" t="n">
-        <v>612.5999755859375</v>
+        <v>691.9500122070312</v>
       </c>
       <c r="F72" t="n">
-        <v>610.57861328125</v>
+        <v>689.6668090820312</v>
       </c>
       <c r="G72" t="n">
-        <v>635555</v>
+        <v>587475</v>
       </c>
       <c r="H72" t="n">
         <v>2023</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B73" t="n">
-        <v>615.7000122070312</v>
+        <v>695.4500122070312</v>
       </c>
       <c r="C73" t="n">
-        <v>678.2999877929688</v>
+        <v>715</v>
       </c>
       <c r="D73" t="n">
-        <v>605.8499755859375</v>
+        <v>603.0499877929688</v>
       </c>
       <c r="E73" t="n">
-        <v>632.7999877929688</v>
+        <v>612.5999755859375</v>
       </c>
       <c r="F73" t="n">
-        <v>630.7119750976562</v>
+        <v>610.57861328125</v>
       </c>
       <c r="G73" t="n">
-        <v>1146731</v>
+        <v>635555</v>
       </c>
       <c r="H73" t="n">
         <v>2023</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4337,36 +4329,36 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B74" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="C74" t="n">
+        <v>678.2999877929688</v>
+      </c>
+      <c r="D74" t="n">
+        <v>605.8499755859375</v>
+      </c>
+      <c r="E74" t="n">
         <v>632.7999877929688</v>
       </c>
-      <c r="C74" t="n">
-        <v>739.5</v>
-      </c>
-      <c r="D74" t="n">
-        <v>628.2999877929688</v>
-      </c>
-      <c r="E74" t="n">
-        <v>717.5999755859375</v>
-      </c>
       <c r="F74" t="n">
-        <v>715.2321166992188</v>
+        <v>630.7119750976562</v>
       </c>
       <c r="G74" t="n">
-        <v>2412618</v>
+        <v>1146731</v>
       </c>
       <c r="H74" t="n">
         <v>2023</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4390,36 +4382,36 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B75" t="n">
-        <v>724</v>
+        <v>632.7999877929688</v>
       </c>
       <c r="C75" t="n">
-        <v>787</v>
+        <v>739.5</v>
       </c>
       <c r="D75" t="n">
-        <v>701.3499755859375</v>
+        <v>628.2999877929688</v>
       </c>
       <c r="E75" t="n">
-        <v>727.0999755859375</v>
+        <v>717.5999755859375</v>
       </c>
       <c r="F75" t="n">
-        <v>724.7008056640625</v>
+        <v>715.2321166992188</v>
       </c>
       <c r="G75" t="n">
-        <v>1896725</v>
+        <v>2412618</v>
       </c>
       <c r="H75" t="n">
         <v>2023</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B76" t="n">
-        <v>727.5</v>
+        <v>724</v>
       </c>
       <c r="C76" t="n">
-        <v>769.9500122070312</v>
+        <v>787</v>
       </c>
       <c r="D76" t="n">
-        <v>717</v>
+        <v>701.3499755859375</v>
       </c>
       <c r="E76" t="n">
-        <v>747.75</v>
+        <v>727.0999755859375</v>
       </c>
       <c r="F76" t="n">
-        <v>747.75</v>
+        <v>724.7008056640625</v>
       </c>
       <c r="G76" t="n">
-        <v>1503912</v>
+        <v>1896725</v>
       </c>
       <c r="H76" t="n">
         <v>2023</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4501,31 +4493,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B77" t="n">
-        <v>755</v>
+        <v>727.5</v>
       </c>
       <c r="C77" t="n">
-        <v>917</v>
+        <v>769.9500122070312</v>
       </c>
       <c r="D77" t="n">
-        <v>711.7999877929688</v>
+        <v>717</v>
       </c>
       <c r="E77" t="n">
-        <v>856.3499755859375</v>
+        <v>747.75</v>
       </c>
       <c r="F77" t="n">
-        <v>856.3499755859375</v>
+        <v>747.75</v>
       </c>
       <c r="G77" t="n">
-        <v>4285308</v>
+        <v>1503912</v>
       </c>
       <c r="H77" t="n">
         <v>2023</v>
       </c>
       <c r="I77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4554,31 +4546,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B78" t="n">
-        <v>863</v>
+        <v>755</v>
       </c>
       <c r="C78" t="n">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D78" t="n">
-        <v>707.1500244140625</v>
+        <v>711.7999877929688</v>
       </c>
       <c r="E78" t="n">
-        <v>717.7000122070312</v>
+        <v>856.3499755859375</v>
       </c>
       <c r="F78" t="n">
-        <v>717.7000122070312</v>
+        <v>856.3499755859375</v>
       </c>
       <c r="G78" t="n">
-        <v>2746143</v>
+        <v>4285308</v>
       </c>
       <c r="H78" t="n">
         <v>2023</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,10 +4585,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4607,31 +4599,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B79" t="n">
+        <v>863</v>
+      </c>
+      <c r="C79" t="n">
+        <v>920</v>
+      </c>
+      <c r="D79" t="n">
+        <v>707.1500244140625</v>
+      </c>
+      <c r="E79" t="n">
         <v>717.7000122070312</v>
       </c>
-      <c r="C79" t="n">
-        <v>794.7999877929688</v>
-      </c>
-      <c r="D79" t="n">
-        <v>670</v>
-      </c>
-      <c r="E79" t="n">
-        <v>725.7999877929688</v>
-      </c>
       <c r="F79" t="n">
-        <v>725.7999877929688</v>
+        <v>717.7000122070312</v>
       </c>
       <c r="G79" t="n">
-        <v>2232757</v>
+        <v>2746143</v>
       </c>
       <c r="H79" t="n">
         <v>2023</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4660,31 +4652,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B80" t="n">
-        <v>721.7000122070312</v>
+        <v>717.7000122070312</v>
       </c>
       <c r="C80" t="n">
-        <v>757.2000122070312</v>
+        <v>794.7999877929688</v>
       </c>
       <c r="D80" t="n">
-        <v>681.8499755859375</v>
+        <v>670</v>
       </c>
       <c r="E80" t="n">
-        <v>698.2999877929688</v>
+        <v>725.7999877929688</v>
       </c>
       <c r="F80" t="n">
-        <v>698.2999877929688</v>
+        <v>725.7999877929688</v>
       </c>
       <c r="G80" t="n">
-        <v>1156855</v>
+        <v>2232757</v>
       </c>
       <c r="H80" t="n">
         <v>2023</v>
       </c>
       <c r="I80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4713,31 +4705,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B81" t="n">
-        <v>700</v>
+        <v>721.7000122070312</v>
       </c>
       <c r="C81" t="n">
-        <v>792</v>
+        <v>757.2000122070312</v>
       </c>
       <c r="D81" t="n">
-        <v>680.6500244140625</v>
+        <v>681.8499755859375</v>
       </c>
       <c r="E81" t="n">
-        <v>713.7000122070312</v>
+        <v>698.2999877929688</v>
       </c>
       <c r="F81" t="n">
-        <v>713.7000122070312</v>
+        <v>698.2999877929688</v>
       </c>
       <c r="G81" t="n">
-        <v>2877935</v>
+        <v>1156855</v>
       </c>
       <c r="H81" t="n">
         <v>2023</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B82" t="n">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="C82" t="n">
-        <v>779.4000244140625</v>
+        <v>792</v>
       </c>
       <c r="D82" t="n">
-        <v>696.7999877929688</v>
+        <v>680.6500244140625</v>
       </c>
       <c r="E82" t="n">
-        <v>767.7000122070312</v>
+        <v>713.7000122070312</v>
       </c>
       <c r="F82" t="n">
-        <v>767.7000122070312</v>
+        <v>713.7000122070312</v>
       </c>
       <c r="G82" t="n">
-        <v>3015038</v>
+        <v>2877935</v>
       </c>
       <c r="H82" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4814,89 +4806,89 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B83" t="n">
-        <v>765.0499877929688</v>
+        <v>716</v>
       </c>
       <c r="C83" t="n">
-        <v>834.75</v>
+        <v>779.4000244140625</v>
       </c>
       <c r="D83" t="n">
-        <v>720</v>
+        <v>696.7999877929688</v>
       </c>
       <c r="E83" t="n">
-        <v>724.0499877929688</v>
+        <v>767.7000122070312</v>
       </c>
       <c r="F83" t="n">
-        <v>724.0499877929688</v>
+        <v>767.7000122070312</v>
       </c>
       <c r="G83" t="n">
-        <v>3804055</v>
+        <v>3015038</v>
       </c>
       <c r="H83" t="n">
         <v>2024</v>
       </c>
       <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
         <v>2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B84" t="n">
-        <v>728</v>
+        <v>765.0499877929688</v>
       </c>
       <c r="C84" t="n">
-        <v>759.9500122070312</v>
+        <v>834.75</v>
       </c>
       <c r="D84" t="n">
-        <v>626</v>
+        <v>720</v>
       </c>
       <c r="E84" t="n">
-        <v>641.1500244140625</v>
+        <v>724.0499877929688</v>
       </c>
       <c r="F84" t="n">
-        <v>641.1500244140625</v>
+        <v>724.0499877929688</v>
       </c>
       <c r="G84" t="n">
-        <v>2123351</v>
+        <v>3804055</v>
       </c>
       <c r="H84" t="n">
         <v>2024</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,45 +4903,45 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B85" t="n">
-        <v>644.9500122070312</v>
+        <v>728</v>
       </c>
       <c r="C85" t="n">
-        <v>742</v>
+        <v>759.9500122070312</v>
       </c>
       <c r="D85" t="n">
-        <v>642.3499755859375</v>
+        <v>626</v>
       </c>
       <c r="E85" t="n">
-        <v>683.0999755859375</v>
+        <v>641.1500244140625</v>
       </c>
       <c r="F85" t="n">
-        <v>683.0999755859375</v>
+        <v>641.1500244140625</v>
       </c>
       <c r="G85" t="n">
-        <v>1614320</v>
+        <v>2123351</v>
       </c>
       <c r="H85" t="n">
         <v>2024</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B86" t="n">
+        <v>644.9500122070312</v>
+      </c>
+      <c r="C86" t="n">
+        <v>742</v>
+      </c>
+      <c r="D86" t="n">
+        <v>642.3499755859375</v>
+      </c>
+      <c r="E86" t="n">
         <v>683.0999755859375</v>
       </c>
-      <c r="C86" t="n">
-        <v>715.5</v>
-      </c>
-      <c r="D86" t="n">
-        <v>628.2000122070312</v>
-      </c>
-      <c r="E86" t="n">
-        <v>686.7000122070312</v>
-      </c>
       <c r="F86" t="n">
-        <v>686.7000122070312</v>
+        <v>683.0999755859375</v>
       </c>
       <c r="G86" t="n">
-        <v>2147354</v>
+        <v>1614320</v>
       </c>
       <c r="H86" t="n">
         <v>2024</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5031,56 +5023,514 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B87" t="n">
-        <v>700.5</v>
+        <v>683.0999755859375</v>
       </c>
       <c r="C87" t="n">
-        <v>725</v>
+        <v>715.5</v>
       </c>
       <c r="D87" t="n">
-        <v>630</v>
+        <v>628.2000122070312</v>
       </c>
       <c r="E87" t="n">
-        <v>704.7999877929688</v>
+        <v>686.7000122070312</v>
       </c>
       <c r="F87" t="n">
-        <v>704.7999877929688</v>
+        <v>686.7000122070312</v>
       </c>
       <c r="G87" t="n">
-        <v>564194</v>
+        <v>2147354</v>
       </c>
       <c r="H87" t="n">
         <v>2024</v>
       </c>
       <c r="I87" t="n">
+        <v>5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>18</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B88" t="n">
+        <v>700.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>725</v>
+      </c>
+      <c r="D88" t="n">
+        <v>630</v>
+      </c>
+      <c r="E88" t="n">
+        <v>704.7999877929688</v>
+      </c>
+      <c r="F88" t="n">
+        <v>704.7999877929688</v>
+      </c>
+      <c r="G88" t="n">
+        <v>564194</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
         <v>6</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
         <v>22</v>
       </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B89" t="n">
+        <v>692</v>
+      </c>
+      <c r="C89" t="n">
+        <v>739.2000122070312</v>
+      </c>
+      <c r="D89" t="n">
+        <v>649.0499877929688</v>
+      </c>
+      <c r="E89" t="n">
+        <v>682.2999877929688</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>2405084</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>27</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B90" t="n">
+        <v>685</v>
+      </c>
+      <c r="C90" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D90" t="n">
+        <v>574.25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>598.5999755859375</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>2088069</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>31</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B91" t="n">
+        <v>600</v>
+      </c>
+      <c r="C91" t="n">
+        <v>610.2999877929688</v>
+      </c>
+      <c r="D91" t="n">
+        <v>521.0499877929688</v>
+      </c>
+      <c r="E91" t="n">
+        <v>526.0499877929688</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>1776928</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>35</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B92" t="n">
+        <v>527.6500244140625</v>
+      </c>
+      <c r="C92" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="D92" t="n">
+        <v>444.8999938964844</v>
+      </c>
+      <c r="E92" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>1439512</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>40</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B93" t="n">
+        <v>498</v>
+      </c>
+      <c r="C93" t="n">
+        <v>674.3499755859375</v>
+      </c>
+      <c r="D93" t="n">
+        <v>455.3500061035156</v>
+      </c>
+      <c r="E93" t="n">
+        <v>668.4000244140625</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>3253836</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>44</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B94" t="n">
+        <v>668.4000244140625</v>
+      </c>
+      <c r="C94" t="n">
+        <v>719</v>
+      </c>
+      <c r="D94" t="n">
+        <v>644.2000122070312</v>
+      </c>
+      <c r="E94" t="n">
+        <v>691.8499755859375</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>1411266</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I94" t="n">
+        <v>12</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>48</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B95" t="n">
+        <v>695.2999877929688</v>
+      </c>
+      <c r="C95" t="n">
+        <v>718.7999877929688</v>
+      </c>
+      <c r="D95" t="n">
+        <v>569</v>
+      </c>
+      <c r="E95" t="n">
+        <v>620.6500244140625</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>813256</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B96" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="C96" t="n">
+        <v>657</v>
+      </c>
+      <c r="D96" t="n">
+        <v>527.3499755859375</v>
+      </c>
+      <c r="E96" t="n">
+        <v>554.5</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>1656676</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B97" t="n">
+        <v>557.2999877929688</v>
+      </c>
+      <c r="C97" t="n">
+        <v>618.7999877929688</v>
+      </c>
+      <c r="D97" t="n">
+        <v>475.2000122070312</v>
+      </c>
+      <c r="E97" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>1350712</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>9</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
